--- a/Desktop.xlsx
+++ b/Desktop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\Github_repo\ICS3U-SystemAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DF0017-79BD-4CE1-B9F7-44F6F76C64EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA395B-B8E6-479F-AAA9-D4F0480DD0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AFCC66D-E398-4341-A376-589EA72D524E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Intel Core i3-10105</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>MSI GeForce RTX 3060</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -446,214 +449,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89016E0-5FEA-41FF-BAE5-C089E22C92FE}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>160</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>140</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="H2">
-        <f>SUM(A2:F2)</f>
+      <c r="H3">
+        <f>SUM(A3:F3)</f>
         <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>290</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>120</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>65</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>55</v>
       </c>
-      <c r="H5">
-        <f>SUM(A5:F5)</f>
+      <c r="H6">
+        <f>SUM(A6:F6)</f>
         <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>460</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>150</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>140</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>200</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>55</v>
       </c>
-      <c r="H8">
-        <f>SUM(A8:F8)</f>
-        <v>1075</v>
+      <c r="G9">
+        <v>650</v>
+      </c>
+      <c r="H9">
+        <f>SUM(A9:G9)</f>
+        <v>1725</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>350</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>150</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>90</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>65</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>70</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>55</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>650</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>1530</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14">
         <v>100</v>
       </c>
     </row>

--- a/Desktop.xlsx
+++ b/Desktop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\Github_repo\ICS3U-SystemAssignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github_Repos\ICS3U-SystemAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA395B-B8E6-479F-AAA9-D4F0480DD0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA75D5-DEF2-478D-9B12-D50F0B8223FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AFCC66D-E398-4341-A376-589EA72D524E}"/>
+    <workbookView xWindow="11988" yWindow="-384" windowWidth="9744" windowHeight="10068" xr2:uid="{8AFCC66D-E398-4341-A376-589EA72D524E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Intel Core i3-10105</t>
   </si>
@@ -91,23 +91,79 @@
     <t>AMD Ryzen 5 5600X</t>
   </si>
   <si>
-    <t>WD Red 4TB NAS Internal Hard Drive</t>
-  </si>
-  <si>
     <t>MSI GeForce RTX 3060</t>
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>WD Blue SN570 500GB M.2 SSD + WD Red 4TB NAS Internal Hard Drive</t>
+  </si>
+  <si>
+    <t>Intel Core i5-10400</t>
+  </si>
+  <si>
+    <t>Asus Prime B460M-A R2.0</t>
+  </si>
+  <si>
+    <t>Intel Core i9-12900K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASUS Prime Z690M-Plus D4 </t>
+  </si>
+  <si>
+    <t>Corsair Vengeance LPX 32GB</t>
+  </si>
+  <si>
+    <t>CORSAIR 4000D AIRFLOW</t>
+  </si>
+  <si>
+    <t>Intel Core i7-11700K</t>
+  </si>
+  <si>
+    <t>GIGABYTE B560M DS3H V2</t>
+  </si>
+  <si>
+    <t>WD Black SN750SE 1TB</t>
+  </si>
+  <si>
+    <t>AMD Ryzen Threadripper 3970X</t>
+  </si>
+  <si>
+    <t>ASUS ROG STRIX TRX40-E</t>
+  </si>
+  <si>
+    <t>Kingston Fury Beast (Black) 64GB</t>
+  </si>
+  <si>
+    <t>2 x KINGSTON NV1 2TB NVMe M.2 SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonic FOCUS Plus 850 </t>
+  </si>
+  <si>
+    <t>GeForce RTX 3080 VENTUS</t>
+  </si>
+  <si>
+    <t>ASUS DUAL GeForce GTX 1650 MINI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,13 +186,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,20 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89016E0-5FEA-41FF-BAE5-C089E22C92FE}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -480,12 +539,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>160</v>
       </c>
       <c r="B3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -501,104 +560,107 @@
       </c>
       <c r="H3">
         <f>SUM(A3:F3)</f>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="B6">
         <v>120</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
       </c>
       <c r="H6">
-        <f>SUM(A6:F6)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <f>SUM(A6:G6)</f>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>460</v>
+        <v>290</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C9">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>70</v>
@@ -606,31 +668,28 @@
       <c r="F9">
         <v>55</v>
       </c>
-      <c r="G9">
-        <v>650</v>
-      </c>
       <c r="H9">
-        <f>SUM(A9:G9)</f>
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <f>SUM(A9:F9)</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -639,24 +698,24 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="B12">
         <v>150</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>70</v>
@@ -668,17 +727,267 @@
         <v>650</v>
       </c>
       <c r="H12">
+        <f>SUM(A12:G12)</f>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>350</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15">
         <v>1530</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>100</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>220</v>
+      </c>
+      <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f>SUM(A18:F18)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>720</v>
+      </c>
+      <c r="B21">
+        <v>230</v>
+      </c>
+      <c r="C21">
+        <v>155</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <f>SUM(A21:F21)</f>
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>445</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>125</v>
+      </c>
+      <c r="E24">
+        <v>115</v>
+      </c>
+      <c r="F24">
+        <v>55</v>
+      </c>
+      <c r="H24">
+        <f>SUM(A24:F24)</f>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2800</v>
+      </c>
+      <c r="B27">
+        <v>700</v>
+      </c>
+      <c r="C27">
+        <v>320</v>
+      </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>1350</v>
+      </c>
+      <c r="H27">
+        <f>SUM(A27:G27)</f>
+        <v>5835</v>
       </c>
     </row>
   </sheetData>
